--- a/meta/program/BlancoRestGeneratorTelegram.xlsx
+++ b/meta/program/BlancoRestGeneratorTelegram.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGenerator/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D027B187-6D1A-3E4E-9C0B-922797162BB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E521AC-F55F-C740-BA78-C55493D0B6DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
     <definedName name="項目型">#REF!</definedName>
     <definedName name="必須">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="69">
   <si>
     <t>バリューオブジェクト定義書</t>
   </si>
@@ -239,12 +239,112 @@
     <t>new java.util.ArrayList&lt;blanco.restgenerator.valueobject.BlancoRestGeneratorTelegramField&gt;()</t>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>packageSuffix</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>パッケージ名の後ろに付加する文字列をしていします。</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">パッケージメイ </t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t xml:space="preserve">ウシロニ </t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">フカ </t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t xml:space="preserve">モジレツ </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>overridePackage</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>定義書で指定されたパッケージ名を上書きします。</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">テイギショ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">ウワガキシマス。 </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>annotationList</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>java.util.List&lt;java.lang.String&gt;</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>new java.util.ArrayList&lt;java.lang.String&gt;()</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>クラスのアノテーションを指定します。</t>
+    <rPh sb="12" eb="14">
+      <t>シテイシマス。</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>importList</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>importを指定します。</t>
+    <rPh sb="7" eb="9">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>adjustFieldName</t>
+  </si>
+  <si>
+    <t>java.lang.Boolean</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>フィールド名の名前変形をおこなうかどうか。</t>
+  </si>
+  <si>
+    <t>extends</t>
+  </si>
+  <si>
+    <t>継承するクラスを指定します。</t>
+  </si>
+  <si>
+    <t>createImportList</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>TypeScript 独自。blancoで一括生成されたクラスについて、import文を自動生成します。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>implementsList</t>
+  </si>
+  <si>
+    <t>実装するインタフェース(java.lang.String)の一覧。</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -276,6 +376,12 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -297,7 +403,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -601,11 +707,87 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="dotted">
+        <color indexed="8"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color indexed="8"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="dotted">
+        <color indexed="8"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -730,8 +912,21 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -753,6 +948,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1214,10 +1421,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1390,23 +1597,23 @@
       <c r="F18"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="51" t="s">
+      <c r="A19" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="54"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
       <c r="F19"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="51"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="54"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="59"/>
       <c r="F20"/>
     </row>
     <row r="21" spans="1:6">
@@ -1443,29 +1650,29 @@
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="51" t="s">
+      <c r="B25" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="55" t="s">
+      <c r="C25" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="55" t="s">
+      <c r="D25" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="55" t="s">
+      <c r="E25" s="60" t="s">
         <v>7</v>
       </c>
       <c r="F25" s="28"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="51"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
       <c r="F26" s="29"/>
     </row>
     <row r="27" spans="1:6">
@@ -1479,10 +1686,10 @@
         <v>24</v>
       </c>
       <c r="D27" s="21"/>
-      <c r="E27" s="49" t="s">
+      <c r="E27" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="50"/>
+      <c r="F27" s="55"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="31">
@@ -1503,7 +1710,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="31">
-        <f>A28+1</f>
+        <f t="shared" ref="A29:A42" si="0">A28+1</f>
         <v>3</v>
       </c>
       <c r="B29" s="32" t="s">
@@ -1520,6 +1727,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="31">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B30" s="32" t="s">
@@ -1536,6 +1744,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="31">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B31" s="32" t="s">
@@ -1552,6 +1761,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="31">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B32" s="32" t="s">
@@ -1566,8 +1776,9 @@
       </c>
       <c r="F32" s="35"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:7">
       <c r="A33" s="31">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B33" s="32" t="s">
@@ -1582,34 +1793,194 @@
       </c>
       <c r="F33" s="35"/>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="48">
+    <row r="34" spans="1:7" s="51" customFormat="1" ht="15">
+      <c r="A34" s="31">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B34" s="45" t="s">
+      <c r="B34" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="49"/>
+      <c r="E34" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" s="53"/>
+      <c r="G34"/>
+    </row>
+    <row r="35" spans="1:7" s="51" customFormat="1" ht="15">
+      <c r="A35" s="31">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B35" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" s="53"/>
+      <c r="G35"/>
+    </row>
+    <row r="36" spans="1:7" s="51" customFormat="1" ht="45">
+      <c r="A36" s="31">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B36" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" s="63"/>
+      <c r="G36"/>
+    </row>
+    <row r="37" spans="1:7" s="51" customFormat="1" ht="45" customHeight="1">
+      <c r="A37" s="31">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B37" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" s="64"/>
+      <c r="G37"/>
+    </row>
+    <row r="38" spans="1:7" s="51" customFormat="1" ht="45">
+      <c r="A38" s="31">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B38" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="F38" s="53"/>
+      <c r="G38"/>
+    </row>
+    <row r="39" spans="1:7" s="51" customFormat="1" ht="15">
+      <c r="A39" s="31">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B39" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="E39" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="F39" s="53"/>
+      <c r="G39"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="31">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B40" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="46" t="s">
+      <c r="C40" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="46" t="s">
+      <c r="D40" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="E34" s="46" t="s">
+      <c r="E40" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="F34" s="47"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="24"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="37"/>
+      <c r="F40" s="47"/>
+    </row>
+    <row r="41" spans="1:7" s="51" customFormat="1" ht="15">
+      <c r="A41" s="31">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B41" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="50"/>
+      <c r="E41" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="F41" s="53"/>
+      <c r="G41"/>
+    </row>
+    <row r="42" spans="1:7" s="51" customFormat="1" ht="15">
+      <c r="A42" s="31">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B42" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" s="50"/>
+      <c r="E42" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="F42" s="53"/>
+      <c r="G42"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="24"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="19">
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
@@ -1621,10 +1992,13 @@
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D51" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D59" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
